--- a/spatial-audio-placement-lat.xlsx
+++ b/spatial-audio-placement-lat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCT_master\THESIS\master_thesis_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F7D913-1E79-4A54-80B9-5A97F1934165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12445233-0244-437A-9CA3-27CFB6C9E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4665" windowWidth="29040" windowHeight="15840" xr2:uid="{08BFD6FA-5D96-4D36-83B2-3BDF830CDA8D}"/>
+    <workbookView xWindow="39615" yWindow="-1890" windowWidth="13830" windowHeight="7170" xr2:uid="{08BFD6FA-5D96-4D36-83B2-3BDF830CDA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
